--- a/UG/calculus 1/A pretest calculus 1.xlsx
+++ b/UG/calculus 1/A pretest calculus 1.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrolealdino/GitHub/Evaluation/UG/calculus 1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -90,8 +101,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +112,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -126,25 +144,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -152,7 +170,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -160,10 +178,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -183,9 +202,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U26"/>
+  <dimension ref="A2:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -536,7 +558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -594,11 +616,15 @@
       <c r="S3" s="3">
         <v>9.5</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="9">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3" s="10">
+        <f>U3*100</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -656,11 +682,15 @@
       <c r="S4" s="3">
         <v>5.5</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="10">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="10">
+        <f t="shared" ref="V4:V13" si="0">U4*100</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -718,11 +748,15 @@
       <c r="S5" s="3">
         <v>5.5</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="10">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" s="10">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -780,11 +814,15 @@
       <c r="S6" s="5">
         <v>5</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="10">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -842,11 +880,15 @@
       <c r="S7" s="3">
         <v>5</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="10">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -904,11 +946,15 @@
       <c r="S8" s="3">
         <v>6.5</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="10">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" s="10">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -966,11 +1012,15 @@
       <c r="S9" s="3">
         <v>5</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="10">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1028,11 +1078,15 @@
       <c r="S10" s="3">
         <v>5</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="10">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1090,11 +1144,15 @@
       <c r="S11" s="3">
         <v>7</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="10">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="10">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>14</v>
       </c>
@@ -1152,11 +1210,15 @@
       <c r="S12" s="3">
         <v>1.5</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="10">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>15</v>
       </c>
@@ -1214,11 +1276,15 @@
       <c r="S13" s="3">
         <v>2.5</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="10">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1235,7 +1301,7 @@
       <c r="N14" s="3"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1252,7 +1318,7 @@
       <c r="N15" s="3"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1269,7 +1335,7 @@
       <c r="N16" s="3"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1286,7 +1352,7 @@
       <c r="N17" s="3"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1303,7 +1369,7 @@
       <c r="N18" s="3"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1320,7 +1386,7 @@
       <c r="N19" s="3"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1337,7 +1403,7 @@
       <c r="N20" s="3"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1354,7 +1420,7 @@
       <c r="N21" s="3"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1371,7 +1437,7 @@
       <c r="N22" s="3"/>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1388,7 +1454,7 @@
       <c r="N23" s="3"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1405,7 +1471,7 @@
       <c r="N24" s="3"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1422,7 +1488,7 @@
       <c r="N25" s="3"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
